--- a/data/DataModel.xlsx
+++ b/data/DataModel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="63">
   <si>
     <t>Attribute</t>
   </si>
@@ -43,6 +43,183 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Autoincrement</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>AddressId</t>
+  </si>
+  <si>
+    <t>Lister</t>
+  </si>
+  <si>
+    <t>Renter</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>Street3</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone1</t>
+  </si>
+  <si>
+    <t>Phone2</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>BoatId</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Sail</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>A separate table for this?</t>
+  </si>
+  <si>
+    <t>DockId</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>MaxBoatLength</t>
+  </si>
+  <si>
+    <t>MeanLowWater</t>
+  </si>
+  <si>
+    <t>FreshWaterWashdown</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>DockLines</t>
+  </si>
+  <si>
+    <t>DockBox</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>MinBoatLength</t>
+  </si>
+  <si>
+    <t>NavMarker</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Links to address table</t>
+  </si>
+  <si>
+    <t>ReservationId</t>
+  </si>
+  <si>
+    <t>Dock</t>
+  </si>
+  <si>
+    <t>CreationTime</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>InitiationTime</t>
+  </si>
+  <si>
+    <t>SettledTime</t>
+  </si>
+  <si>
+    <t>LastModifiedTime</t>
+  </si>
+  <si>
+    <t>ReservationStart</t>
+  </si>
+  <si>
+    <t>ReservationEnd</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Link to dock table</t>
+  </si>
+  <si>
+    <t>Link to user table</t>
   </si>
 </sst>
 </file>
@@ -82,7 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -90,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,14 +279,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,34 +303,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,15 +604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +627,111 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -465,55 +741,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -523,26 +994,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -552,26 +1136,142 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
